--- a/Code/Results/Cases/Case_0_178/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_178/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.06637131841037558</v>
+        <v>0.1870109324866007</v>
       </c>
       <c r="D2">
-        <v>0.04927033135735215</v>
+        <v>0.1531424273940765</v>
       </c>
       <c r="E2">
-        <v>0.03447797730054791</v>
+        <v>0.1318313254792209</v>
       </c>
       <c r="F2">
-        <v>0.9249931335522348</v>
+        <v>1.425286788478957</v>
       </c>
       <c r="G2">
-        <v>0.7691987834006113</v>
+        <v>0.8679767137632979</v>
       </c>
       <c r="H2">
-        <v>0.4757646800085809</v>
+        <v>0.8949953293570729</v>
       </c>
       <c r="I2">
-        <v>0.6619910694647757</v>
+        <v>0.9939850508759704</v>
       </c>
       <c r="J2">
-        <v>0.03625178156025355</v>
+        <v>0.1480452987242324</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.04602535928390372</v>
+        <v>0.1750774811426949</v>
       </c>
       <c r="M2">
-        <v>2.464973777170968</v>
+        <v>1.158243764853978</v>
       </c>
       <c r="N2">
-        <v>4.191288708185027</v>
+        <v>1.86477819059678</v>
       </c>
       <c r="O2">
-        <v>2.577130235439085</v>
+        <v>3.554511214537541</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.06549767448110089</v>
+        <v>0.1881661551333451</v>
       </c>
       <c r="D3">
-        <v>0.0494882305758324</v>
+        <v>0.1541696090682905</v>
       </c>
       <c r="E3">
-        <v>0.0362982464194439</v>
+        <v>0.1333230058917891</v>
       </c>
       <c r="F3">
-        <v>0.8490684979558409</v>
+        <v>1.41739764474832</v>
       </c>
       <c r="G3">
-        <v>0.6905298407804423</v>
+        <v>0.8550740402857571</v>
       </c>
       <c r="H3">
-        <v>0.4446580619787142</v>
+        <v>0.893492746379124</v>
       </c>
       <c r="I3">
-        <v>0.606345107843552</v>
+        <v>0.9878313419564435</v>
       </c>
       <c r="J3">
-        <v>0.03904078001916633</v>
+        <v>0.1500106438187074</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.04896801663821559</v>
+        <v>0.1771055688953211</v>
       </c>
       <c r="M3">
-        <v>2.154401045041595</v>
+        <v>1.057171418215162</v>
       </c>
       <c r="N3">
-        <v>3.734469128867858</v>
+        <v>1.714121077930599</v>
       </c>
       <c r="O3">
-        <v>2.344807777842249</v>
+        <v>3.52364790160297</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0650778264943952</v>
+        <v>0.1889535385620746</v>
       </c>
       <c r="D4">
-        <v>0.04969482923793933</v>
+        <v>0.1548534623564137</v>
       </c>
       <c r="E4">
-        <v>0.03749342176018899</v>
+        <v>0.134292022877387</v>
       </c>
       <c r="F4">
-        <v>0.8040023790761381</v>
+        <v>1.413346828502725</v>
       </c>
       <c r="G4">
-        <v>0.6434789671224905</v>
+        <v>0.8477037080632925</v>
       </c>
       <c r="H4">
-        <v>0.4263109971915213</v>
+        <v>0.8929961380174092</v>
       </c>
       <c r="I4">
-        <v>0.5732886412220282</v>
+        <v>0.9846129173704838</v>
       </c>
       <c r="J4">
-        <v>0.04085198021452352</v>
+        <v>0.1512820724479695</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.05086907580887523</v>
+        <v>0.1784171030564607</v>
       </c>
       <c r="M4">
-        <v>1.963122448331632</v>
+        <v>0.9949182052387187</v>
       </c>
       <c r="N4">
-        <v>3.454374120835809</v>
+        <v>1.621788000599253</v>
       </c>
       <c r="O4">
-        <v>2.206377168862417</v>
+        <v>3.506745862013446</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.06493490653481615</v>
+        <v>0.189294044498368</v>
       </c>
       <c r="D5">
-        <v>0.04979678170657564</v>
+        <v>0.1551455172503573</v>
       </c>
       <c r="E5">
-        <v>0.03799936660642356</v>
+        <v>0.1347002588391364</v>
       </c>
       <c r="F5">
-        <v>0.7860015420650939</v>
+        <v>1.411895502172499</v>
       </c>
       <c r="G5">
-        <v>0.6245955149576474</v>
+        <v>0.844838911367674</v>
       </c>
       <c r="H5">
-        <v>0.4190123138680804</v>
+        <v>0.8929009400609687</v>
       </c>
       <c r="I5">
-        <v>0.5600779774880138</v>
+        <v>0.983442164179273</v>
       </c>
       <c r="J5">
-        <v>0.04161407978205955</v>
+        <v>0.1518164482523285</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.05166686142122501</v>
+        <v>0.1789682296887358</v>
       </c>
       <c r="M5">
-        <v>1.885026238693925</v>
+        <v>0.9695034479248079</v>
       </c>
       <c r="N5">
-        <v>3.340319298740184</v>
+        <v>1.584209141978903</v>
       </c>
       <c r="O5">
-        <v>2.150949673323652</v>
+        <v>3.500373021441817</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.06491284380129514</v>
+        <v>0.1893517717682727</v>
       </c>
       <c r="D6">
-        <v>0.0498147680403811</v>
+        <v>0.1551948211536178</v>
       </c>
       <c r="E6">
-        <v>0.03808450302853306</v>
+        <v>0.1347688525336874</v>
       </c>
       <c r="F6">
-        <v>0.7830337575718573</v>
+        <v>1.411666553835786</v>
       </c>
       <c r="G6">
-        <v>0.6214767593856578</v>
+        <v>0.8443715860657193</v>
       </c>
       <c r="H6">
-        <v>0.4178107974856289</v>
+        <v>0.8928916072529631</v>
       </c>
       <c r="I6">
-        <v>0.5578995275471641</v>
+        <v>0.9832562634802002</v>
       </c>
       <c r="J6">
-        <v>0.04174205357661165</v>
+        <v>0.1519061625966744</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.05180071010192755</v>
+        <v>0.1790607503966029</v>
       </c>
       <c r="M6">
-        <v>1.872049421285013</v>
+        <v>0.9652806473714861</v>
       </c>
       <c r="N6">
-        <v>3.321385440782564</v>
+        <v>1.577972214032371</v>
       </c>
       <c r="O6">
-        <v>2.141803267721457</v>
+        <v>3.499345909244994</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06507578643428502</v>
+        <v>0.1889580512067823</v>
       </c>
       <c r="D7">
-        <v>0.04969613299390829</v>
+        <v>0.1548573469231478</v>
       </c>
       <c r="E7">
-        <v>0.037500169346115</v>
+        <v>0.1342974744266523</v>
       </c>
       <c r="F7">
-        <v>0.803758173511099</v>
+        <v>1.413326448030446</v>
       </c>
       <c r="G7">
-        <v>0.6432231551425502</v>
+        <v>0.8476645110927024</v>
       </c>
       <c r="H7">
-        <v>0.4262118588481911</v>
+        <v>0.892994420128403</v>
       </c>
       <c r="I7">
-        <v>0.5731094489155808</v>
+        <v>0.9845965582085796</v>
       </c>
       <c r="J7">
-        <v>0.04086216194207015</v>
+        <v>0.151289213412459</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.05087974233324566</v>
+        <v>0.1784244682650833</v>
       </c>
       <c r="M7">
-        <v>1.962069818568153</v>
+        <v>0.9945756357271591</v>
       </c>
       <c r="N7">
-        <v>3.452835604626017</v>
+        <v>1.621280999999442</v>
       </c>
       <c r="O7">
-        <v>2.205625767371487</v>
+        <v>3.506657831142263</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06604518869884402</v>
+        <v>0.1873930547038185</v>
       </c>
       <c r="D8">
-        <v>0.04933001625891009</v>
+        <v>0.1534855734162299</v>
       </c>
       <c r="E8">
-        <v>0.0350891533014166</v>
+        <v>0.1323346300177124</v>
       </c>
       <c r="F8">
-        <v>0.8984759589993985</v>
+        <v>1.42240196904929</v>
       </c>
       <c r="G8">
-        <v>0.7417985398330131</v>
+        <v>0.8634132327259607</v>
       </c>
       <c r="H8">
-        <v>0.4648759113976695</v>
+        <v>0.8943888571529328</v>
       </c>
       <c r="I8">
-        <v>0.6425620594258916</v>
+        <v>0.9917470059485396</v>
       </c>
       <c r="J8">
-        <v>0.0371924375403877</v>
+        <v>0.148709515266058</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.04702004978619989</v>
+        <v>0.1757630090859141</v>
       </c>
       <c r="M8">
-        <v>2.358008707898477</v>
+        <v>1.123436016048672</v>
       </c>
       <c r="N8">
-        <v>4.033687108129101</v>
+        <v>1.812798836154315</v>
       </c>
       <c r="O8">
-        <v>2.496103205379541</v>
+        <v>3.543444339655196</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0689252055867442</v>
+        <v>0.1849432210457209</v>
       </c>
       <c r="D9">
-        <v>0.0492154923887469</v>
+        <v>0.1512168128050781</v>
       </c>
       <c r="E9">
-        <v>0.03100388284326794</v>
+        <v>0.1289070797579956</v>
       </c>
       <c r="F9">
-        <v>1.097795188242102</v>
+        <v>1.446496598370516</v>
       </c>
       <c r="G9">
-        <v>0.9462309718072675</v>
+        <v>0.8986843391666355</v>
       </c>
       <c r="H9">
-        <v>0.5472132889939161</v>
+        <v>0.9005020818585194</v>
       </c>
       <c r="I9">
-        <v>0.7884881528078083</v>
+        <v>1.010215665430245</v>
       </c>
       <c r="J9">
-        <v>0.03081742996560277</v>
+        <v>0.1441644861513127</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.04022751923048995</v>
+        <v>0.1710697530507344</v>
       </c>
       <c r="M9">
-        <v>3.129939014523671</v>
+        <v>1.374477020366953</v>
       </c>
       <c r="N9">
-        <v>5.176586630443808</v>
+        <v>2.189539052771863</v>
       </c>
       <c r="O9">
-        <v>3.102852537037933</v>
+        <v>3.631849307835807</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07171716220054947</v>
+        <v>0.1835203621297552</v>
       </c>
       <c r="D10">
-        <v>0.04953669070120625</v>
+        <v>0.1498060889532198</v>
       </c>
       <c r="E10">
-        <v>0.02843404116161619</v>
+        <v>0.1266459299115432</v>
       </c>
       <c r="F10">
-        <v>1.254396249530615</v>
+        <v>1.468048220775216</v>
       </c>
       <c r="G10">
-        <v>1.104988058538083</v>
+        <v>0.9272886778289546</v>
       </c>
       <c r="H10">
-        <v>0.612495273593396</v>
+        <v>0.9070534082744359</v>
       </c>
       <c r="I10">
-        <v>0.9030019178175905</v>
+        <v>1.026503284392163</v>
       </c>
       <c r="J10">
-        <v>0.02668908479254439</v>
+        <v>0.1411388693486426</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.035751092067279</v>
+        <v>0.1679420114195578</v>
       </c>
       <c r="M10">
-        <v>3.694652446391302</v>
+        <v>1.557776552854776</v>
       </c>
       <c r="N10">
-        <v>6.01983763532985</v>
+        <v>2.466830846553194</v>
       </c>
       <c r="O10">
-        <v>3.576740164449859</v>
+        <v>3.706751261024976</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07315270290661147</v>
+        <v>0.1829548583697047</v>
       </c>
       <c r="D11">
-        <v>0.04977958994212273</v>
+        <v>0.1492197867103755</v>
       </c>
       <c r="E11">
-        <v>0.02736792305770308</v>
+        <v>0.1256731061978025</v>
       </c>
       <c r="F11">
-        <v>1.328296358006725</v>
+        <v>1.478690901926612</v>
       </c>
       <c r="G11">
-        <v>1.179496797251517</v>
+        <v>0.9408893979228594</v>
       </c>
       <c r="H11">
-        <v>0.6434296700663538</v>
+        <v>0.9104812456105265</v>
       </c>
       <c r="I11">
-        <v>0.9570115365952034</v>
+        <v>1.034505177373589</v>
       </c>
       <c r="J11">
-        <v>0.02494438346204819</v>
+        <v>0.1398306234713875</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.03383573033385412</v>
+        <v>0.166588649299718</v>
       </c>
       <c r="M11">
-        <v>3.951124537711294</v>
+        <v>1.640889894638008</v>
       </c>
       <c r="N11">
-        <v>6.404536088654766</v>
+        <v>2.593043748012406</v>
       </c>
       <c r="O11">
-        <v>3.799743923406993</v>
+        <v>3.742994980887374</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07372174997531999</v>
+        <v>0.1827524673649776</v>
       </c>
       <c r="D12">
-        <v>0.04988626228499626</v>
+        <v>0.1490057309044239</v>
       </c>
       <c r="E12">
-        <v>0.02697983380830404</v>
+        <v>0.1253127487340375</v>
       </c>
       <c r="F12">
-        <v>1.356703697661047</v>
+        <v>1.482841732706092</v>
       </c>
       <c r="G12">
-        <v>1.208078927117782</v>
+        <v>0.9461244614826398</v>
       </c>
       <c r="H12">
-        <v>0.6553392906225213</v>
+        <v>0.9118436234183775</v>
       </c>
       <c r="I12">
-        <v>0.9777687329964238</v>
+        <v>1.037620589216971</v>
       </c>
       <c r="J12">
-        <v>0.02430402571835577</v>
+        <v>0.1393450320989278</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.03312867451805346</v>
+        <v>0.1660861559690678</v>
       </c>
       <c r="M12">
-        <v>4.048191971622813</v>
+        <v>1.67232124933426</v>
       </c>
       <c r="N12">
-        <v>6.55039594636736</v>
+        <v>2.640843434668795</v>
       </c>
       <c r="O12">
-        <v>3.885376439786171</v>
+        <v>3.757032043104005</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07359803677626786</v>
+        <v>0.182795533239279</v>
       </c>
       <c r="D13">
-        <v>0.04986262224392846</v>
+        <v>0.1490514775805991</v>
       </c>
       <c r="E13">
-        <v>0.02706270709649861</v>
+        <v>0.1253900009081796</v>
       </c>
       <c r="F13">
-        <v>1.350566182526677</v>
+        <v>1.481942408737581</v>
       </c>
       <c r="G13">
-        <v>1.201906280163939</v>
+        <v>0.9449932245744321</v>
       </c>
       <c r="H13">
-        <v>0.6527653549042896</v>
+        <v>0.911547350431448</v>
       </c>
       <c r="I13">
-        <v>0.973284246623578</v>
+        <v>1.036945836280395</v>
       </c>
       <c r="J13">
-        <v>0.02444101522083475</v>
+        <v>0.1394491761833603</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.0332801258840596</v>
+        <v>0.1661939322349655</v>
       </c>
       <c r="M13">
-        <v>4.027288988286386</v>
+        <v>1.665553853607562</v>
       </c>
       <c r="N13">
-        <v>6.518973860974427</v>
+        <v>2.630548741760322</v>
       </c>
       <c r="O13">
-        <v>3.866879235663191</v>
+        <v>3.753995014774091</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07319899911757943</v>
+        <v>0.1829379720164468</v>
       </c>
       <c r="D14">
-        <v>0.04978806689610238</v>
+        <v>0.1492020166454608</v>
       </c>
       <c r="E14">
-        <v>0.02733567663486713</v>
+        <v>0.1256432983981322</v>
       </c>
       <c r="F14">
-        <v>1.330624728245056</v>
+        <v>1.479029974307096</v>
       </c>
       <c r="G14">
-        <v>1.181840676431392</v>
+        <v>0.941318390083751</v>
       </c>
       <c r="H14">
-        <v>0.6444054596217939</v>
+        <v>0.9105920401790399</v>
       </c>
       <c r="I14">
-        <v>0.9587129564904444</v>
+        <v>1.034759774943751</v>
       </c>
       <c r="J14">
-        <v>0.02489128668400209</v>
+        <v>0.1397904768124361</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.03377718961703291</v>
+        <v>0.16654710850655</v>
       </c>
       <c r="M14">
-        <v>3.959111349030437</v>
+        <v>1.643476627026274</v>
       </c>
       <c r="N14">
-        <v>6.416532250667842</v>
+        <v>2.5969761713759</v>
       </c>
       <c r="O14">
-        <v>3.806764490543515</v>
+        <v>3.744143557047096</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07295794055375637</v>
+        <v>0.1830267503400549</v>
       </c>
       <c r="D15">
-        <v>0.04974433665267952</v>
+        <v>0.1492952630814095</v>
       </c>
       <c r="E15">
-        <v>0.02750493875590987</v>
+        <v>0.125799496374241</v>
       </c>
       <c r="F15">
-        <v>1.318466342973053</v>
+        <v>1.477261742040824</v>
       </c>
       <c r="G15">
-        <v>1.169598927865394</v>
+        <v>0.9390784911985577</v>
       </c>
       <c r="H15">
-        <v>0.6393107773283759</v>
+        <v>0.9100152617232595</v>
       </c>
       <c r="I15">
-        <v>0.9498282393871449</v>
+        <v>1.033431855440654</v>
       </c>
       <c r="J15">
-        <v>0.02516977303701773</v>
+        <v>0.1400008117454328</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.03408405830690775</v>
+        <v>0.1667647410873858</v>
       </c>
       <c r="M15">
-        <v>3.917343916619785</v>
+        <v>1.629948148742244</v>
       </c>
       <c r="N15">
-        <v>6.353808402840741</v>
+        <v>2.576412593985935</v>
       </c>
       <c r="O15">
-        <v>3.770100546667436</v>
+        <v>3.738149939432049</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0716268141059544</v>
+        <v>0.183558964024634</v>
       </c>
       <c r="D16">
-        <v>0.04952282934958774</v>
+        <v>0.1498455201121836</v>
       </c>
       <c r="E16">
-        <v>0.02850585508245906</v>
+        <v>0.1267106294426439</v>
       </c>
       <c r="F16">
-        <v>1.249623630806909</v>
+        <v>1.467369580003108</v>
       </c>
       <c r="G16">
-        <v>1.100167992834031</v>
+        <v>0.9264116926480597</v>
       </c>
       <c r="H16">
-        <v>0.6105000017235227</v>
+        <v>0.9068383950211398</v>
       </c>
       <c r="I16">
-        <v>0.8995132855502845</v>
+        <v>1.02599227086634</v>
       </c>
       <c r="J16">
-        <v>0.0268058845857011</v>
+        <v>0.1412257385439639</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.03587877183209232</v>
+        <v>0.1680318551732993</v>
       </c>
       <c r="M16">
-        <v>3.677883550704152</v>
+        <v>1.552339203106257</v>
       </c>
       <c r="N16">
-        <v>5.994720876029476</v>
+        <v>2.458583573774774</v>
       </c>
       <c r="O16">
-        <v>3.562325682917105</v>
+        <v>3.704426344556907</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.07085372906055909</v>
+        <v>0.1839063980359512</v>
       </c>
       <c r="D17">
-        <v>0.04941226712113433</v>
+        <v>0.150197279219018</v>
       </c>
       <c r="E17">
-        <v>0.02914681818188214</v>
+        <v>0.1272838735491639</v>
       </c>
       <c r="F17">
-        <v>1.20810021343982</v>
+        <v>1.461515929431158</v>
       </c>
       <c r="G17">
-        <v>1.058186893995426</v>
+        <v>0.9187918455401416</v>
       </c>
       <c r="H17">
-        <v>0.5931544617107818</v>
+        <v>0.9050041078444764</v>
       </c>
       <c r="I17">
-        <v>0.8691577619022866</v>
+        <v>1.021580139866586</v>
       </c>
       <c r="J17">
-        <v>0.02784452749463318</v>
+        <v>0.1419946513248924</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.03701135009217449</v>
+        <v>0.1688269846306598</v>
       </c>
       <c r="M17">
-        <v>3.530879802499385</v>
+        <v>1.504657225685364</v>
       </c>
       <c r="N17">
-        <v>5.774730793769436</v>
+        <v>2.386314247384519</v>
       </c>
       <c r="O17">
-        <v>3.436846213875242</v>
+        <v>3.684294089173648</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.07042454094224126</v>
+        <v>0.1841139289646776</v>
       </c>
       <c r="D18">
-        <v>0.04935773548086075</v>
+        <v>0.1504048208308397</v>
       </c>
       <c r="E18">
-        <v>0.02952511791841683</v>
+        <v>0.1276188386376642</v>
       </c>
       <c r="F18">
-        <v>1.184464969285045</v>
+        <v>1.458228006546307</v>
       </c>
       <c r="G18">
-        <v>1.034253510926476</v>
+        <v>0.9144644912829989</v>
       </c>
       <c r="H18">
-        <v>0.5832930991975758</v>
+        <v>0.9039912072403808</v>
       </c>
       <c r="I18">
-        <v>0.8518765967444253</v>
+        <v>1.019098171218815</v>
       </c>
       <c r="J18">
-        <v>0.0284544015032826</v>
+        <v>0.1424433205954163</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.03767411336548188</v>
+        <v>0.1692908598576155</v>
       </c>
       <c r="M18">
-        <v>3.44628718963915</v>
+        <v>1.477206525317172</v>
       </c>
       <c r="N18">
-        <v>5.648300164613829</v>
+        <v>2.344753845975902</v>
       </c>
       <c r="O18">
-        <v>3.365365527182234</v>
+        <v>3.672918826407454</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.07028183374855956</v>
+        <v>0.1841855173086486</v>
       </c>
       <c r="D19">
-        <v>0.04934080536481389</v>
+        <v>0.1504759874967618</v>
       </c>
       <c r="E19">
-        <v>0.02965483402366598</v>
+        <v>0.1277331535518869</v>
       </c>
       <c r="F19">
-        <v>1.17650388664174</v>
+        <v>1.457128328639484</v>
       </c>
       <c r="G19">
-        <v>1.0261855549644</v>
+        <v>0.9130088306436903</v>
       </c>
       <c r="H19">
-        <v>0.5799735082789539</v>
+        <v>0.9036554939357302</v>
       </c>
       <c r="I19">
-        <v>0.8460552971472524</v>
+        <v>1.018267396496483</v>
       </c>
       <c r="J19">
-        <v>0.02866300276900369</v>
+        <v>0.1425963328749174</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.03790043506906571</v>
+        <v>0.1694490427064501</v>
       </c>
       <c r="M19">
-        <v>3.417638525914896</v>
+        <v>1.467907937107</v>
       </c>
       <c r="N19">
-        <v>5.605509700565392</v>
+        <v>2.330683554456868</v>
       </c>
       <c r="O19">
-        <v>3.341278779267412</v>
+        <v>3.669102435376885</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.07093441261545053</v>
+        <v>0.1838686166090397</v>
       </c>
       <c r="D20">
-        <v>0.04942309343610063</v>
+        <v>0.1501592937685885</v>
       </c>
       <c r="E20">
-        <v>0.0290775835643835</v>
+        <v>0.1272223072972984</v>
       </c>
       <c r="F20">
-        <v>1.212494510773467</v>
+        <v>1.462130889814574</v>
       </c>
       <c r="G20">
-        <v>1.062633538906354</v>
+        <v>0.9195972585628454</v>
       </c>
       <c r="H20">
-        <v>0.5949888649637103</v>
+        <v>0.9051950105040021</v>
       </c>
       <c r="I20">
-        <v>0.8723704770078484</v>
+        <v>1.02204404609035</v>
       </c>
       <c r="J20">
-        <v>0.02773266302800825</v>
+        <v>0.1419121356119417</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.03688960612960601</v>
+        <v>0.168741665056241</v>
       </c>
       <c r="M20">
-        <v>3.546532688590574</v>
+        <v>1.509735692306322</v>
       </c>
       <c r="N20">
-        <v>5.798138400451478</v>
+        <v>2.394006749746097</v>
       </c>
       <c r="O20">
-        <v>3.45013129889486</v>
+        <v>3.686416058329655</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.0733155021094376</v>
+        <v>0.1828958153565594</v>
       </c>
       <c r="D21">
-        <v>0.04980956047949903</v>
+        <v>0.1491575835968675</v>
       </c>
       <c r="E21">
-        <v>0.02725506793614851</v>
+        <v>0.1255686807961176</v>
       </c>
       <c r="F21">
-        <v>1.336470201088559</v>
+        <v>1.479882151176255</v>
       </c>
       <c r="G21">
-        <v>1.187724144112423</v>
+        <v>0.9423954763701659</v>
       </c>
       <c r="H21">
-        <v>0.6468555129575009</v>
+        <v>0.9108708923313316</v>
       </c>
       <c r="I21">
-        <v>0.9629843771443234</v>
+        <v>1.035399559528244</v>
       </c>
       <c r="J21">
-        <v>0.02475846993758291</v>
+        <v>0.1396899620875165</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.03363068762043087</v>
+        <v>0.1664431007436766</v>
       </c>
       <c r="M21">
-        <v>3.979138147215252</v>
+        <v>1.649962403327791</v>
       </c>
       <c r="N21">
-        <v>6.446616661309122</v>
+        <v>2.60683713414403</v>
       </c>
       <c r="O21">
-        <v>3.824388483290022</v>
+        <v>3.747028689895558</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.07502080028697833</v>
+        <v>0.1823285369645973</v>
       </c>
       <c r="D22">
-        <v>0.05014816682932732</v>
+        <v>0.1485493251896735</v>
       </c>
       <c r="E22">
-        <v>0.02615545064989</v>
+        <v>0.1245347476107961</v>
       </c>
       <c r="F22">
-        <v>1.419981869105385</v>
+        <v>1.492187064205197</v>
       </c>
       <c r="G22">
-        <v>1.271638808374973</v>
+        <v>0.957789577897131</v>
       </c>
       <c r="H22">
-        <v>0.6819016664254889</v>
+        <v>0.9149553588649724</v>
       </c>
       <c r="I22">
-        <v>1.023998420284158</v>
+        <v>1.044625196789369</v>
       </c>
       <c r="J22">
-        <v>0.02293370709956366</v>
+        <v>0.1382948485771756</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.0316076016427691</v>
+        <v>0.1649991209356045</v>
       </c>
       <c r="M22">
-        <v>4.26156643657319</v>
+        <v>1.741363287305575</v>
       </c>
       <c r="N22">
-        <v>6.871514021687062</v>
+        <v>2.74596460130283</v>
       </c>
       <c r="O22">
-        <v>4.075960460502415</v>
+        <v>3.788463288091577</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07409643468758276</v>
+        <v>0.182625037461591</v>
       </c>
       <c r="D23">
-        <v>0.04995930654771641</v>
+        <v>0.1488697197933391</v>
       </c>
       <c r="E23">
-        <v>0.02673367876248278</v>
+        <v>0.1250822916926353</v>
       </c>
       <c r="F23">
-        <v>1.375168486348741</v>
+        <v>1.485555313429671</v>
       </c>
       <c r="G23">
-        <v>1.226640884622185</v>
+        <v>0.9495281936882805</v>
       </c>
       <c r="H23">
-        <v>0.6630856496500712</v>
+        <v>0.9127411057724828</v>
       </c>
       <c r="I23">
-        <v>0.9912597643690901</v>
+        <v>1.039655802795423</v>
       </c>
       <c r="J23">
-        <v>0.02389632476224346</v>
+        <v>0.1390342069690449</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.03267729389033658</v>
+        <v>0.1657644666216074</v>
       </c>
       <c r="M23">
-        <v>4.110854214700737</v>
+        <v>1.692604341539052</v>
       </c>
       <c r="N23">
-        <v>6.644630721444344</v>
+        <v>2.671708394257905</v>
       </c>
       <c r="O23">
-        <v>3.941012443763611</v>
+        <v>3.766182184998627</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.07089788814475639</v>
+        <v>0.1838856733380183</v>
       </c>
       <c r="D24">
-        <v>0.04941817078420385</v>
+        <v>0.1501764504485443</v>
       </c>
       <c r="E24">
-        <v>0.02910885406745223</v>
+        <v>0.1272501245815016</v>
       </c>
       <c r="F24">
-        <v>1.210507113374106</v>
+        <v>1.461852625071828</v>
       </c>
       <c r="G24">
-        <v>1.060622584058365</v>
+        <v>0.919232965015695</v>
       </c>
       <c r="H24">
-        <v>0.5941591873827861</v>
+        <v>0.9051085736498123</v>
       </c>
       <c r="I24">
-        <v>0.8709174792232588</v>
+        <v>1.021834143937156</v>
       </c>
       <c r="J24">
-        <v>0.02778319734392054</v>
+        <v>0.1419494203732183</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.03694461041742336</v>
+        <v>0.1687802170266073</v>
       </c>
       <c r="M24">
-        <v>3.539456262892273</v>
+        <v>1.507439834735891</v>
       </c>
       <c r="N24">
-        <v>5.787555684399535</v>
+        <v>2.390529005832832</v>
       </c>
       <c r="O24">
-        <v>3.444123067676799</v>
+        <v>3.685456096086341</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.06803337041459656</v>
+        <v>0.1855397260978506</v>
       </c>
       <c r="D25">
-        <v>0.04917812436474378</v>
+        <v>0.1517855429380539</v>
       </c>
       <c r="E25">
-        <v>0.03203626306252438</v>
+        <v>0.1297891832212454</v>
       </c>
       <c r="F25">
-        <v>1.042233757800631</v>
+        <v>1.43930311706481</v>
       </c>
       <c r="G25">
-        <v>0.8895593804538606</v>
+        <v>0.8886711919881378</v>
       </c>
       <c r="H25">
-        <v>0.524160375121582</v>
+        <v>0.8984865595687666</v>
       </c>
       <c r="I25">
-        <v>0.7478338565657836</v>
+        <v>1.00474254211661</v>
       </c>
       <c r="J25">
-        <v>0.03244864796252556</v>
+        <v>0.1453389934388647</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.04197788139114422</v>
+        <v>0.1722831259490492</v>
       </c>
       <c r="M25">
-        <v>2.921564293232976</v>
+        <v>1.306754546491177</v>
       </c>
       <c r="N25">
-        <v>4.866871719613926</v>
+        <v>2.087517568983628</v>
       </c>
       <c r="O25">
-        <v>2.934194013529776</v>
+        <v>3.606188419794876</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_178/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_178/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1870109324866007</v>
+        <v>0.06637131841037558</v>
       </c>
       <c r="D2">
-        <v>0.1531424273940765</v>
+        <v>0.04927033135746939</v>
       </c>
       <c r="E2">
-        <v>0.1318313254792209</v>
+        <v>0.03447797730054791</v>
       </c>
       <c r="F2">
-        <v>1.425286788478957</v>
+        <v>0.9249931335522348</v>
       </c>
       <c r="G2">
-        <v>0.8679767137632979</v>
+        <v>0.7691987834006682</v>
       </c>
       <c r="H2">
-        <v>0.8949953293570729</v>
+        <v>0.4757646800085809</v>
       </c>
       <c r="I2">
-        <v>0.9939850508759704</v>
+        <v>0.6619910694647615</v>
       </c>
       <c r="J2">
-        <v>0.1480452987242324</v>
+        <v>0.03625178156023301</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1750774811426949</v>
+        <v>0.04602535928390417</v>
       </c>
       <c r="M2">
-        <v>1.158243764853978</v>
+        <v>2.464973777170968</v>
       </c>
       <c r="N2">
-        <v>1.86477819059678</v>
+        <v>4.191288708184914</v>
       </c>
       <c r="O2">
-        <v>3.554511214537541</v>
+        <v>2.577130235439085</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1881661551333451</v>
+        <v>0.06549767448120747</v>
       </c>
       <c r="D3">
-        <v>0.1541696090682905</v>
+        <v>0.04948823057606688</v>
       </c>
       <c r="E3">
-        <v>0.1333230058917891</v>
+        <v>0.03629824641942569</v>
       </c>
       <c r="F3">
-        <v>1.41739764474832</v>
+        <v>0.8490684979558552</v>
       </c>
       <c r="G3">
-        <v>0.8550740402857571</v>
+        <v>0.6905298407804423</v>
       </c>
       <c r="H3">
-        <v>0.893492746379124</v>
+        <v>0.4446580619787142</v>
       </c>
       <c r="I3">
-        <v>0.9878313419564435</v>
+        <v>0.6063451078435449</v>
       </c>
       <c r="J3">
-        <v>0.1500106438187074</v>
+        <v>0.03904078001931244</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1771055688953211</v>
+        <v>0.04896801663824712</v>
       </c>
       <c r="M3">
-        <v>1.057171418215162</v>
+        <v>2.154401045041595</v>
       </c>
       <c r="N3">
-        <v>1.714121077930599</v>
+        <v>3.734469128867858</v>
       </c>
       <c r="O3">
-        <v>3.52364790160297</v>
+        <v>2.34480777784222</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1889535385620746</v>
+        <v>0.06507782649461546</v>
       </c>
       <c r="D4">
-        <v>0.1548534623564137</v>
+        <v>0.04969482923799973</v>
       </c>
       <c r="E4">
-        <v>0.134292022877387</v>
+        <v>0.03749342176019033</v>
       </c>
       <c r="F4">
-        <v>1.413346828502725</v>
+        <v>0.8040023790761381</v>
       </c>
       <c r="G4">
-        <v>0.8477037080632925</v>
+        <v>0.6434789671225332</v>
       </c>
       <c r="H4">
-        <v>0.8929961380174092</v>
+        <v>0.4263109971915213</v>
       </c>
       <c r="I4">
-        <v>0.9846129173704838</v>
+        <v>0.5732886412220282</v>
       </c>
       <c r="J4">
-        <v>0.1512820724479695</v>
+        <v>0.04085198021453174</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1784171030564607</v>
+        <v>0.0508690758087651</v>
       </c>
       <c r="M4">
-        <v>0.9949182052387187</v>
+        <v>1.963122448331632</v>
       </c>
       <c r="N4">
-        <v>1.621788000599253</v>
+        <v>3.454374120835837</v>
       </c>
       <c r="O4">
-        <v>3.506745862013446</v>
+        <v>2.20637716886236</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.189294044498368</v>
+        <v>0.06493490653492984</v>
       </c>
       <c r="D5">
-        <v>0.1551455172503573</v>
+        <v>0.04979678170657209</v>
       </c>
       <c r="E5">
-        <v>0.1347002588391364</v>
+        <v>0.03799936660642356</v>
       </c>
       <c r="F5">
-        <v>1.411895502172499</v>
+        <v>0.7860015420650939</v>
       </c>
       <c r="G5">
-        <v>0.844838911367674</v>
+        <v>0.6245955149577185</v>
       </c>
       <c r="H5">
-        <v>0.8929009400609687</v>
+        <v>0.419012313868194</v>
       </c>
       <c r="I5">
-        <v>0.983442164179273</v>
+        <v>0.5600779774880138</v>
       </c>
       <c r="J5">
-        <v>0.1518164482523285</v>
+        <v>0.04161407978206422</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1789682296887358</v>
+        <v>0.05166686142119659</v>
       </c>
       <c r="M5">
-        <v>0.9695034479248079</v>
+        <v>1.885026238693911</v>
       </c>
       <c r="N5">
-        <v>1.584209141978903</v>
+        <v>3.340319298740184</v>
       </c>
       <c r="O5">
-        <v>3.500373021441817</v>
+        <v>2.150949673323566</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1893517717682727</v>
+        <v>0.06491284380153672</v>
       </c>
       <c r="D6">
-        <v>0.1551948211536178</v>
+        <v>0.04981476804038465</v>
       </c>
       <c r="E6">
-        <v>0.1347688525336874</v>
+        <v>0.03808450302854771</v>
       </c>
       <c r="F6">
-        <v>1.411666553835786</v>
+        <v>0.7830337575718431</v>
       </c>
       <c r="G6">
-        <v>0.8443715860657193</v>
+        <v>0.6214767593856578</v>
       </c>
       <c r="H6">
-        <v>0.8928916072529631</v>
+        <v>0.4178107974855294</v>
       </c>
       <c r="I6">
-        <v>0.9832562634802002</v>
+        <v>0.5578995275471641</v>
       </c>
       <c r="J6">
-        <v>0.1519061625966744</v>
+        <v>0.04174205357664518</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1790607503966029</v>
+        <v>0.05180071010196796</v>
       </c>
       <c r="M6">
-        <v>0.9652806473714861</v>
+        <v>1.872049421285055</v>
       </c>
       <c r="N6">
-        <v>1.577972214032371</v>
+        <v>3.321385440782564</v>
       </c>
       <c r="O6">
-        <v>3.499345909244994</v>
+        <v>2.141803267721343</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1889580512067823</v>
+        <v>0.06507578643417133</v>
       </c>
       <c r="D7">
-        <v>0.1548573469231478</v>
+        <v>0.04969613299390474</v>
       </c>
       <c r="E7">
-        <v>0.1342974744266523</v>
+        <v>0.03750016934612965</v>
       </c>
       <c r="F7">
-        <v>1.413326448030446</v>
+        <v>0.8037581735110848</v>
       </c>
       <c r="G7">
-        <v>0.8476645110927024</v>
+        <v>0.6432231551425218</v>
       </c>
       <c r="H7">
-        <v>0.892994420128403</v>
+        <v>0.4262118588482906</v>
       </c>
       <c r="I7">
-        <v>0.9845965582085796</v>
+        <v>0.5731094489155666</v>
       </c>
       <c r="J7">
-        <v>0.151289213412459</v>
+        <v>0.04086216194216352</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1784244682650833</v>
+        <v>0.05087974233321768</v>
       </c>
       <c r="M7">
-        <v>0.9945756357271591</v>
+        <v>1.962069818568153</v>
       </c>
       <c r="N7">
-        <v>1.621280999999442</v>
+        <v>3.452835604626017</v>
       </c>
       <c r="O7">
-        <v>3.506657831142263</v>
+        <v>2.205625767371458</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1873930547038185</v>
+        <v>0.06604518869859533</v>
       </c>
       <c r="D8">
-        <v>0.1534855734162299</v>
+        <v>0.0493300162587893</v>
       </c>
       <c r="E8">
-        <v>0.1323346300177124</v>
+        <v>0.03508915330140372</v>
       </c>
       <c r="F8">
-        <v>1.42240196904929</v>
+        <v>0.8984759589993843</v>
       </c>
       <c r="G8">
-        <v>0.8634132327259607</v>
+        <v>0.7417985398331126</v>
       </c>
       <c r="H8">
-        <v>0.8943888571529328</v>
+        <v>0.4648759113975558</v>
       </c>
       <c r="I8">
-        <v>0.9917470059485396</v>
+        <v>0.6425620594258845</v>
       </c>
       <c r="J8">
-        <v>0.148709515266058</v>
+        <v>0.03719243754047741</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1757630090859141</v>
+        <v>0.04702004978611241</v>
       </c>
       <c r="M8">
-        <v>1.123436016048672</v>
+        <v>2.358008707898492</v>
       </c>
       <c r="N8">
-        <v>1.812798836154315</v>
+        <v>4.033687108129072</v>
       </c>
       <c r="O8">
-        <v>3.543444339655196</v>
+        <v>2.496103205379541</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1849432210457209</v>
+        <v>0.0689252055867442</v>
       </c>
       <c r="D9">
-        <v>0.1512168128050781</v>
+        <v>0.04921549238867584</v>
       </c>
       <c r="E9">
-        <v>0.1289070797579956</v>
+        <v>0.03100388284326794</v>
       </c>
       <c r="F9">
-        <v>1.446496598370516</v>
+        <v>1.097795188242088</v>
       </c>
       <c r="G9">
-        <v>0.8986843391666355</v>
+        <v>0.9462309718073243</v>
       </c>
       <c r="H9">
-        <v>0.9005020818585194</v>
+        <v>0.5472132889939161</v>
       </c>
       <c r="I9">
-        <v>1.010215665430245</v>
+        <v>0.7884881528078083</v>
       </c>
       <c r="J9">
-        <v>0.1441644861513127</v>
+        <v>0.03081742996567727</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1710697530507344</v>
+        <v>0.04022751923044954</v>
       </c>
       <c r="M9">
-        <v>1.374477020366953</v>
+        <v>3.129939014523671</v>
       </c>
       <c r="N9">
-        <v>2.189539052771863</v>
+        <v>5.176586630443694</v>
       </c>
       <c r="O9">
-        <v>3.631849307835807</v>
+        <v>3.102852537037904</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1835203621297552</v>
+        <v>0.07171716220069868</v>
       </c>
       <c r="D10">
-        <v>0.1498060889532198</v>
+        <v>0.0495366907012027</v>
       </c>
       <c r="E10">
-        <v>0.1266459299115432</v>
+        <v>0.02843404116163484</v>
       </c>
       <c r="F10">
-        <v>1.468048220775216</v>
+        <v>1.254396249530615</v>
       </c>
       <c r="G10">
-        <v>0.9272886778289546</v>
+        <v>1.10498805853814</v>
       </c>
       <c r="H10">
-        <v>0.9070534082744359</v>
+        <v>0.6124952735932823</v>
       </c>
       <c r="I10">
-        <v>1.026503284392163</v>
+        <v>0.9030019178175763</v>
       </c>
       <c r="J10">
-        <v>0.1411388693486426</v>
+        <v>0.02668908479249155</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1679420114195578</v>
+        <v>0.03575109206743265</v>
       </c>
       <c r="M10">
-        <v>1.557776552854776</v>
+        <v>3.694652446391345</v>
       </c>
       <c r="N10">
-        <v>2.466830846553194</v>
+        <v>6.019837635329793</v>
       </c>
       <c r="O10">
-        <v>3.706751261024976</v>
+        <v>3.576740164449802</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1829548583697047</v>
+        <v>0.07315270290661857</v>
       </c>
       <c r="D11">
-        <v>0.1492197867103755</v>
+        <v>0.04977958994219378</v>
       </c>
       <c r="E11">
-        <v>0.1256731061978025</v>
+        <v>0.02736792305770663</v>
       </c>
       <c r="F11">
-        <v>1.478690901926612</v>
+        <v>1.328296358006725</v>
       </c>
       <c r="G11">
-        <v>0.9408893979228594</v>
+        <v>1.179496797251488</v>
       </c>
       <c r="H11">
-        <v>0.9104812456105265</v>
+        <v>0.6434296700663538</v>
       </c>
       <c r="I11">
-        <v>1.034505177373589</v>
+        <v>0.9570115365952319</v>
       </c>
       <c r="J11">
-        <v>0.1398306234713875</v>
+        <v>0.02494438346203109</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.166588649299718</v>
+        <v>0.03383573033386522</v>
       </c>
       <c r="M11">
-        <v>1.640889894638008</v>
+        <v>3.951124537711266</v>
       </c>
       <c r="N11">
-        <v>2.593043748012406</v>
+        <v>6.404536088654766</v>
       </c>
       <c r="O11">
-        <v>3.742994980887374</v>
+        <v>3.799743923406993</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1827524673649776</v>
+        <v>0.07372174997522052</v>
       </c>
       <c r="D12">
-        <v>0.1490057309044239</v>
+        <v>0.04988626228507442</v>
       </c>
       <c r="E12">
-        <v>0.1253127487340375</v>
+        <v>0.02697983380830582</v>
       </c>
       <c r="F12">
-        <v>1.482841732706092</v>
+        <v>1.356703697661047</v>
       </c>
       <c r="G12">
-        <v>0.9461244614826398</v>
+        <v>1.208078927117782</v>
       </c>
       <c r="H12">
-        <v>0.9118436234183775</v>
+        <v>0.6553392906225213</v>
       </c>
       <c r="I12">
-        <v>1.037620589216971</v>
+        <v>0.9777687329964238</v>
       </c>
       <c r="J12">
-        <v>0.1393450320989278</v>
+        <v>0.02430402571841261</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1660861559690678</v>
+        <v>0.03312867451813517</v>
       </c>
       <c r="M12">
-        <v>1.67232124933426</v>
+        <v>4.048191971622813</v>
       </c>
       <c r="N12">
-        <v>2.640843434668795</v>
+        <v>6.55039594636753</v>
       </c>
       <c r="O12">
-        <v>3.757032043104005</v>
+        <v>3.885376439786114</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.182795533239279</v>
+        <v>0.07359803677611865</v>
       </c>
       <c r="D13">
-        <v>0.1490514775805991</v>
+        <v>0.04986262224388938</v>
       </c>
       <c r="E13">
-        <v>0.1253900009081796</v>
+        <v>0.02706270709648706</v>
       </c>
       <c r="F13">
-        <v>1.481942408737581</v>
+        <v>1.350566182526663</v>
       </c>
       <c r="G13">
-        <v>0.9449932245744321</v>
+        <v>1.201906280164025</v>
       </c>
       <c r="H13">
-        <v>0.911547350431448</v>
+        <v>0.6527653549042611</v>
       </c>
       <c r="I13">
-        <v>1.036945836280395</v>
+        <v>0.973284246623578</v>
       </c>
       <c r="J13">
-        <v>0.1394491761833603</v>
+        <v>0.02444101522084874</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1661939322349655</v>
+        <v>0.03328012588411244</v>
       </c>
       <c r="M13">
-        <v>1.665553853607562</v>
+        <v>4.027288988286358</v>
       </c>
       <c r="N13">
-        <v>2.630548741760322</v>
+        <v>6.518973860974427</v>
       </c>
       <c r="O13">
-        <v>3.753995014774091</v>
+        <v>3.866879235663191</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1829379720164468</v>
+        <v>0.07319899911757943</v>
       </c>
       <c r="D14">
-        <v>0.1492020166454608</v>
+        <v>0.04978806689621607</v>
       </c>
       <c r="E14">
-        <v>0.1256432983981322</v>
+        <v>0.02733567663486891</v>
       </c>
       <c r="F14">
-        <v>1.479029974307096</v>
+        <v>1.33062472824507</v>
       </c>
       <c r="G14">
-        <v>0.941318390083751</v>
+        <v>1.181840676431449</v>
       </c>
       <c r="H14">
-        <v>0.9105920401790399</v>
+        <v>0.6444054596219075</v>
       </c>
       <c r="I14">
-        <v>1.034759774943751</v>
+        <v>0.9587129564904302</v>
       </c>
       <c r="J14">
-        <v>0.1397904768124361</v>
+        <v>0.02489128668406693</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.16654710850655</v>
+        <v>0.03377718961709952</v>
       </c>
       <c r="M14">
-        <v>1.643476627026274</v>
+        <v>3.959111349030465</v>
       </c>
       <c r="N14">
-        <v>2.5969761713759</v>
+        <v>6.416532250667842</v>
       </c>
       <c r="O14">
-        <v>3.744143557047096</v>
+        <v>3.806764490543458</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1830267503400549</v>
+        <v>0.07295794055377058</v>
       </c>
       <c r="D15">
-        <v>0.1492952630814095</v>
+        <v>0.04974433665279676</v>
       </c>
       <c r="E15">
-        <v>0.125799496374241</v>
+        <v>0.02750493875590632</v>
       </c>
       <c r="F15">
-        <v>1.477261742040824</v>
+        <v>1.318466342973053</v>
       </c>
       <c r="G15">
-        <v>0.9390784911985577</v>
+        <v>1.169598927865366</v>
       </c>
       <c r="H15">
-        <v>0.9100152617232595</v>
+        <v>0.6393107773283759</v>
       </c>
       <c r="I15">
-        <v>1.033431855440654</v>
+        <v>0.9498282393871307</v>
       </c>
       <c r="J15">
-        <v>0.1400008117454328</v>
+        <v>0.02516977303707968</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1667647410873858</v>
+        <v>0.03408405830706407</v>
       </c>
       <c r="M15">
-        <v>1.629948148742244</v>
+        <v>3.917343916619814</v>
       </c>
       <c r="N15">
-        <v>2.576412593985935</v>
+        <v>6.353808402840741</v>
       </c>
       <c r="O15">
-        <v>3.738149939432049</v>
+        <v>3.770100546667379</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.183558964024634</v>
+        <v>0.0716268141058336</v>
       </c>
       <c r="D16">
-        <v>0.1498455201121836</v>
+        <v>0.04952282934938879</v>
       </c>
       <c r="E16">
-        <v>0.1267106294426439</v>
+        <v>0.02850585508247949</v>
       </c>
       <c r="F16">
-        <v>1.467369580003108</v>
+        <v>1.249623630806894</v>
       </c>
       <c r="G16">
-        <v>0.9264116926480597</v>
+        <v>1.100167992834031</v>
       </c>
       <c r="H16">
-        <v>0.9068383950211398</v>
+        <v>0.6105000017235227</v>
       </c>
       <c r="I16">
-        <v>1.02599227086634</v>
+        <v>0.8995132855502845</v>
       </c>
       <c r="J16">
-        <v>0.1412257385439639</v>
+        <v>0.02680588458570998</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1680318551732993</v>
+        <v>0.03587877183203991</v>
       </c>
       <c r="M16">
-        <v>1.552339203106257</v>
+        <v>3.677883550704095</v>
       </c>
       <c r="N16">
-        <v>2.458583573774774</v>
+        <v>5.994720876029533</v>
       </c>
       <c r="O16">
-        <v>3.704426344556907</v>
+        <v>3.562325682917105</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1839063980359512</v>
+        <v>0.0708537290609712</v>
       </c>
       <c r="D17">
-        <v>0.150197279219018</v>
+        <v>0.04941226712098867</v>
       </c>
       <c r="E17">
-        <v>0.1272838735491639</v>
+        <v>0.02914681818186615</v>
       </c>
       <c r="F17">
-        <v>1.461515929431158</v>
+        <v>1.20810021343982</v>
       </c>
       <c r="G17">
-        <v>0.9187918455401416</v>
+        <v>1.058186893995412</v>
       </c>
       <c r="H17">
-        <v>0.9050041078444764</v>
+        <v>0.5931544617107534</v>
       </c>
       <c r="I17">
-        <v>1.021580139866586</v>
+        <v>0.8691577619022652</v>
       </c>
       <c r="J17">
-        <v>0.1419946513248924</v>
+        <v>0.02784452749464095</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1688269846306598</v>
+        <v>0.03701135009203371</v>
       </c>
       <c r="M17">
-        <v>1.504657225685364</v>
+        <v>3.530879802499342</v>
       </c>
       <c r="N17">
-        <v>2.386314247384519</v>
+        <v>5.774730793769322</v>
       </c>
       <c r="O17">
-        <v>3.684294089173648</v>
+        <v>3.436846213875299</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1841139289646776</v>
+        <v>0.07042454094239048</v>
       </c>
       <c r="D18">
-        <v>0.1504048208308397</v>
+        <v>0.04935773548089273</v>
       </c>
       <c r="E18">
-        <v>0.1276188386376642</v>
+        <v>0.02952511791843282</v>
       </c>
       <c r="F18">
-        <v>1.458228006546307</v>
+        <v>1.18446496928506</v>
       </c>
       <c r="G18">
-        <v>0.9144644912829989</v>
+        <v>1.034253510926561</v>
       </c>
       <c r="H18">
-        <v>0.9039912072403808</v>
+        <v>0.5832930991976752</v>
       </c>
       <c r="I18">
-        <v>1.019098171218815</v>
+        <v>0.8518765967444324</v>
       </c>
       <c r="J18">
-        <v>0.1424433205954163</v>
+        <v>0.02845440150318246</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1692908598576155</v>
+        <v>0.03767411336553206</v>
       </c>
       <c r="M18">
-        <v>1.477206525317172</v>
+        <v>3.446287189639165</v>
       </c>
       <c r="N18">
-        <v>2.344753845975902</v>
+        <v>5.648300164613715</v>
       </c>
       <c r="O18">
-        <v>3.672918826407454</v>
+        <v>3.365365527182234</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1841855173086486</v>
+        <v>0.07028183374869457</v>
       </c>
       <c r="D19">
-        <v>0.1504759874967618</v>
+        <v>0.04934080536454744</v>
       </c>
       <c r="E19">
-        <v>0.1277331535518869</v>
+        <v>0.02965483402368108</v>
       </c>
       <c r="F19">
-        <v>1.457128328639484</v>
+        <v>1.17650388664174</v>
       </c>
       <c r="G19">
-        <v>0.9130088306436903</v>
+        <v>1.026185554964414</v>
       </c>
       <c r="H19">
-        <v>0.9036554939357302</v>
+        <v>0.5799735082788402</v>
       </c>
       <c r="I19">
-        <v>1.018267396496483</v>
+        <v>0.8460552971472524</v>
       </c>
       <c r="J19">
-        <v>0.1425963328749174</v>
+        <v>0.02866300276894429</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1694490427064501</v>
+        <v>0.03790043506908169</v>
       </c>
       <c r="M19">
-        <v>1.467907937107</v>
+        <v>3.417638525914924</v>
       </c>
       <c r="N19">
-        <v>2.330683554456868</v>
+        <v>5.605509700565392</v>
       </c>
       <c r="O19">
-        <v>3.669102435376885</v>
+        <v>3.341278779267327</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1838686166090397</v>
+        <v>0.07093441261534394</v>
       </c>
       <c r="D20">
-        <v>0.1501592937685885</v>
+        <v>0.04942309343610063</v>
       </c>
       <c r="E20">
-        <v>0.1272223072972984</v>
+        <v>0.02907758356438972</v>
       </c>
       <c r="F20">
-        <v>1.462130889814574</v>
+        <v>1.212494510773425</v>
       </c>
       <c r="G20">
-        <v>0.9195972585628454</v>
+        <v>1.062633538906411</v>
       </c>
       <c r="H20">
-        <v>0.9051950105040021</v>
+        <v>0.5949888649636819</v>
       </c>
       <c r="I20">
-        <v>1.02204404609035</v>
+        <v>0.8723704770078484</v>
       </c>
       <c r="J20">
-        <v>0.1419121356119417</v>
+        <v>0.02773266302806598</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.168741665056241</v>
+        <v>0.03688960612954872</v>
       </c>
       <c r="M20">
-        <v>1.509735692306322</v>
+        <v>3.546532688590588</v>
       </c>
       <c r="N20">
-        <v>2.394006749746097</v>
+        <v>5.798138400451478</v>
       </c>
       <c r="O20">
-        <v>3.686416058329655</v>
+        <v>3.450131298894917</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1828958153565594</v>
+        <v>0.07331550210927418</v>
       </c>
       <c r="D21">
-        <v>0.1491575835968675</v>
+        <v>0.04980956047960916</v>
       </c>
       <c r="E21">
-        <v>0.1255686807961176</v>
+        <v>0.02725506793614674</v>
       </c>
       <c r="F21">
-        <v>1.479882151176255</v>
+        <v>1.336470201088545</v>
       </c>
       <c r="G21">
-        <v>0.9423954763701659</v>
+        <v>1.187724144112451</v>
       </c>
       <c r="H21">
-        <v>0.9108708923313316</v>
+        <v>0.6468555129573872</v>
       </c>
       <c r="I21">
-        <v>1.035399559528244</v>
+        <v>0.9629843771443376</v>
       </c>
       <c r="J21">
-        <v>0.1396899620875165</v>
+        <v>0.02475846993754094</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1664431007436766</v>
+        <v>0.0336306876203718</v>
       </c>
       <c r="M21">
-        <v>1.649962403327791</v>
+        <v>3.979138147215224</v>
       </c>
       <c r="N21">
-        <v>2.60683713414403</v>
+        <v>6.446616661309179</v>
       </c>
       <c r="O21">
-        <v>3.747028689895558</v>
+        <v>3.824388483289965</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1823285369645973</v>
+        <v>0.0750208002868149</v>
       </c>
       <c r="D22">
-        <v>0.1485493251896735</v>
+        <v>0.05014816682944101</v>
       </c>
       <c r="E22">
-        <v>0.1245347476107961</v>
+        <v>0.0261554506498749</v>
       </c>
       <c r="F22">
-        <v>1.492187064205197</v>
+        <v>1.419981869105385</v>
       </c>
       <c r="G22">
-        <v>0.957789577897131</v>
+        <v>1.271638808375059</v>
       </c>
       <c r="H22">
-        <v>0.9149553588649724</v>
+        <v>0.6819016664256026</v>
       </c>
       <c r="I22">
-        <v>1.044625196789369</v>
+        <v>1.023998420284158</v>
       </c>
       <c r="J22">
-        <v>0.1382948485771756</v>
+        <v>0.02293370709955767</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1649991209356045</v>
+        <v>0.03160760164276155</v>
       </c>
       <c r="M22">
-        <v>1.741363287305575</v>
+        <v>4.261566436573204</v>
       </c>
       <c r="N22">
-        <v>2.74596460130283</v>
+        <v>6.871514021687176</v>
       </c>
       <c r="O22">
-        <v>3.788463288091577</v>
+        <v>4.075960460502415</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.182625037461591</v>
+        <v>0.07409643468758276</v>
       </c>
       <c r="D23">
-        <v>0.1488697197933391</v>
+        <v>0.04995930654779812</v>
       </c>
       <c r="E23">
-        <v>0.1250822916926353</v>
+        <v>0.02673367876248278</v>
       </c>
       <c r="F23">
-        <v>1.485555313429671</v>
+        <v>1.375168486348741</v>
       </c>
       <c r="G23">
-        <v>0.9495281936882805</v>
+        <v>1.226640884622071</v>
       </c>
       <c r="H23">
-        <v>0.9127411057724828</v>
+        <v>0.6630856496500712</v>
       </c>
       <c r="I23">
-        <v>1.039655802795423</v>
+        <v>0.9912597643691043</v>
       </c>
       <c r="J23">
-        <v>0.1390342069690449</v>
+        <v>0.02389632476224302</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1657644666216074</v>
+        <v>0.03267729389029617</v>
       </c>
       <c r="M23">
-        <v>1.692604341539052</v>
+        <v>4.110854214700737</v>
       </c>
       <c r="N23">
-        <v>2.671708394257905</v>
+        <v>6.644630721444457</v>
       </c>
       <c r="O23">
-        <v>3.766182184998627</v>
+        <v>3.941012443763611</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1838856733380183</v>
+        <v>0.0708978881447635</v>
       </c>
       <c r="D24">
-        <v>0.1501764504485443</v>
+        <v>0.04941817078431754</v>
       </c>
       <c r="E24">
-        <v>0.1272501245815016</v>
+        <v>0.02910885406746644</v>
       </c>
       <c r="F24">
-        <v>1.461852625071828</v>
+        <v>1.210507113374092</v>
       </c>
       <c r="G24">
-        <v>0.919232965015695</v>
+        <v>1.060622584058322</v>
       </c>
       <c r="H24">
-        <v>0.9051085736498123</v>
+        <v>0.5941591873826724</v>
       </c>
       <c r="I24">
-        <v>1.021834143937156</v>
+        <v>0.8709174792232588</v>
       </c>
       <c r="J24">
-        <v>0.1419494203732183</v>
+        <v>0.02778319734398127</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1687802170266073</v>
+        <v>0.03694461041736652</v>
       </c>
       <c r="M24">
-        <v>1.507439834735891</v>
+        <v>3.539456262892244</v>
       </c>
       <c r="N24">
-        <v>2.390529005832832</v>
+        <v>5.787555684399422</v>
       </c>
       <c r="O24">
-        <v>3.685456096086341</v>
+        <v>3.444123067676742</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1855397260978506</v>
+        <v>0.06803337041471025</v>
       </c>
       <c r="D25">
-        <v>0.1517855429380539</v>
+        <v>0.04917812436474378</v>
       </c>
       <c r="E25">
-        <v>0.1297891832212454</v>
+        <v>0.03203626306252616</v>
       </c>
       <c r="F25">
-        <v>1.43930311706481</v>
+        <v>1.042233757800616</v>
       </c>
       <c r="G25">
-        <v>0.8886711919881378</v>
+        <v>0.8895593804539175</v>
       </c>
       <c r="H25">
-        <v>0.8984865595687666</v>
+        <v>0.5241603751215678</v>
       </c>
       <c r="I25">
-        <v>1.00474254211661</v>
+        <v>0.7478338565657836</v>
       </c>
       <c r="J25">
-        <v>0.1453389934388647</v>
+        <v>0.032448647962528</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1722831259490492</v>
+        <v>0.04197788139110914</v>
       </c>
       <c r="M25">
-        <v>1.306754546491177</v>
+        <v>2.921564293232976</v>
       </c>
       <c r="N25">
-        <v>2.087517568983628</v>
+        <v>4.866871719613926</v>
       </c>
       <c r="O25">
-        <v>3.606188419794876</v>
+        <v>2.934194013529748</v>
       </c>
     </row>
   </sheetData>
